--- a/biology/Botanique/Merismopedia/Merismopedia.xlsx
+++ b/biology/Botanique/Merismopedia/Merismopedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merismopedia est un genre de cyanobacteries de la famille des Merismopediaceae. 
 Après division cellulaire les cellules restent collées, et s'organisent les unes par rapport aux autres mais sans communication entre elles pour former une colonie.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (16 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (16 août 2017) :
 Merismopedia affixa P.Richter
 Merismopedia africana Komárek &amp; Cronberg
 Merismopedia angularis R.H.Thompson
@@ -556,7 +570,7 @@
 Merismopedia vangoorii Joosten
 Merismopedia venezuelica J.Schiller
 Merismopedia warmingiana (Lagerheim) Forti
-Selon Catalogue of Life                                   (16 août 2017)[3] :
+Selon Catalogue of Life                                   (16 août 2017) :
 Merismopedia angularis Thompson
 Merismopedia convoluta
 Merismopedia elegans A. Br. In Kutz, 1849
@@ -569,7 +583,7 @@
 Merismopedia thermalis Kuetzing
 Merismopedia tranquilla (C. G. Ehrenberg) Trevisan
 Merismopedia trolleri Bachmann, 1920
-Selon ITIS      (16 août 2017)[4] :
+Selon ITIS      (16 août 2017) :
 Merismopedia angularis Thompson
 Merismopedia convoluta
 Merismopedia elegans A. Br. In Kutz, 1849
@@ -582,7 +596,7 @@
 Merismopedia thermalis Kuetzing
 Merismopedia tranquilla (C. G. Ehrenberg) Trevisan
 Merismopedia trolleri Bachmann, 1920
-Selon World Register of Marine Species                               (16 août 2017)[2] :
+Selon World Register of Marine Species                               (16 août 2017) :
 Merismopedia affixa P.Richter, 1895
 Merismopedia africana Komárek &amp; Cronberg, 2001
 Merismopedia angularis R.H.Thompson, 1939
